--- a/tests/data/Architecture_Golden_Config_Dellanox.xlsx
+++ b/tests/data/Architecture_Golden_Config_Dellanox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasbates/canu-container/canu/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AA098C-431C-8446-A541-428926B98E85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E7923D-235C-7246-A7FA-72DD76CB9529}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="3600" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{4E3EDB71-9423-764F-AB16-D8E153A84166}"/>
+    <workbookView xWindow="5200" yWindow="1640" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{4E3EDB71-9423-764F-AB16-D8E153A84166}"/>
   </bookViews>
   <sheets>
     <sheet name="SWITCH_TO_SWITCH" sheetId="4" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>bmc</t>
   </si>
   <si>
-    <t>sw-leaf-bmc-001</t>
-  </si>
-  <si>
     <t>sw-cdu-001</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>s1</t>
+  </si>
+  <si>
+    <t>sw-smn01</t>
   </si>
 </sst>
 </file>
@@ -591,12 +591,12 @@
   <dimension ref="J14:U30"/>
   <sheetViews>
     <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="T22" sqref="J22:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
     <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -726,7 +726,7 @@
     </row>
     <row r="18" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>18</v>
@@ -738,7 +738,7 @@
         <v>25</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>18</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="19" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>18</v>
@@ -767,7 +767,7 @@
         <v>26</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>18</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="20" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>18</v>
@@ -797,7 +797,7 @@
         <v>20</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>18</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="21" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>18</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="22" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>18</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="23" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>18</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="24" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>18</v>
@@ -918,10 +918,10 @@
     </row>
     <row r="25" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>19</v>
@@ -944,10 +944,10 @@
     </row>
     <row r="26" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>19</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="27" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>19</v>
@@ -996,10 +996,10 @@
     </row>
     <row r="28" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>19</v>
@@ -1022,13 +1022,13 @@
     </row>
     <row r="29" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J29" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O29" s="2">
         <v>51</v>
@@ -1048,13 +1048,13 @@
     </row>
     <row r="30" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J30" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O30" s="2">
         <v>52</v>
@@ -1082,7 +1082,7 @@
   <dimension ref="J14:T34"/>
   <sheetViews>
     <sheetView topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1135,7 +1135,7 @@
         <v>22</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2">
@@ -1166,7 +1166,7 @@
         <v>22</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2">
@@ -1197,7 +1197,7 @@
         <v>23</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2">
@@ -1228,7 +1228,7 @@
         <v>23</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2">
@@ -1259,7 +1259,7 @@
         <v>22</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2">
@@ -1290,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2">
@@ -1321,7 +1321,7 @@
         <v>24</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2">
@@ -1352,7 +1352,7 @@
         <v>24</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2">
@@ -1383,7 +1383,7 @@
         <v>23</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2">
@@ -1414,7 +1414,7 @@
         <v>23</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2">
@@ -1445,7 +1445,7 @@
         <v>24</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2">
@@ -1476,7 +1476,7 @@
         <v>24</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2">
@@ -1507,7 +1507,7 @@
         <v>25</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2">
@@ -1538,14 +1538,14 @@
         <v>25</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2">
         <v>2</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>16</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="10:20" x14ac:dyDescent="0.2">
@@ -1569,7 +1569,7 @@
         <v>26</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="10:20" x14ac:dyDescent="0.2">
@@ -1600,14 +1600,14 @@
         <v>26</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2">
         <v>2</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>16</v>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="10:20" x14ac:dyDescent="0.2">
@@ -1631,7 +1631,7 @@
         <v>25</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="10:20" x14ac:dyDescent="0.2">
@@ -1662,14 +1662,14 @@
         <v>25</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2">
         <v>2</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>17</v>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="10:20" x14ac:dyDescent="0.2">
@@ -1693,7 +1693,7 @@
         <v>26</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2">
@@ -1724,14 +1724,14 @@
         <v>26</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2">
         <v>2</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>17</v>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1755,7 +1755,7 @@
   <dimension ref="J14:T28"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1812,13 +1812,13 @@
         <v>1</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2">
@@ -1843,13 +1843,13 @@
         <v>1</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2">
@@ -1874,13 +1874,13 @@
         <v>1</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2">
@@ -1905,13 +1905,13 @@
         <v>1</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -1936,13 +1936,13 @@
         <v>1</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2">
@@ -1967,13 +1967,13 @@
         <v>1</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2">
@@ -1998,13 +1998,13 @@
         <v>1</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2">
@@ -2029,13 +2029,13 @@
         <v>1</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2">
@@ -2060,13 +2060,13 @@
         <v>1</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2">
@@ -2090,13 +2090,13 @@
         <v>1</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2">
@@ -2105,13 +2105,13 @@
     </row>
     <row r="25" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" t="s">
         <v>45</v>
-      </c>
-      <c r="K25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" t="s">
-        <v>46</v>
       </c>
       <c r="M25" t="s">
         <v>31</v>
@@ -2120,13 +2120,13 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q25" t="s">
         <v>16</v>
       </c>
       <c r="R25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T25">
         <v>11</v>
@@ -2134,13 +2134,13 @@
     </row>
     <row r="26" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" t="s">
         <v>47</v>
-      </c>
-      <c r="K26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" t="s">
-        <v>48</v>
       </c>
       <c r="M26" t="s">
         <v>31</v>
@@ -2149,13 +2149,13 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q26" t="s">
         <v>16</v>
       </c>
       <c r="R26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T26">
         <v>12</v>
@@ -2163,13 +2163,13 @@
     </row>
     <row r="27" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" t="s">
         <v>49</v>
-      </c>
-      <c r="K27" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" t="s">
-        <v>50</v>
       </c>
       <c r="M27" t="s">
         <v>31</v>
@@ -2178,13 +2178,13 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q27" t="s">
         <v>16</v>
       </c>
       <c r="R27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T27">
         <v>13</v>
@@ -2192,13 +2192,13 @@
     </row>
     <row r="28" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" t="s">
         <v>51</v>
-      </c>
-      <c r="K28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" t="s">
-        <v>52</v>
       </c>
       <c r="M28" t="s">
         <v>31</v>
@@ -2207,13 +2207,13 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q28" t="s">
         <v>16</v>
       </c>
       <c r="R28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T28">
         <v>14</v>
@@ -2229,7 +2229,7 @@
   <dimension ref="J14:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="15" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>18</v>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>18</v>
@@ -2297,24 +2297,24 @@
         <v>1</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>18</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="17" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>18</v>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>18</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="18" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>18</v>
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>18</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="19" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>18</v>
@@ -2392,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>18</v>
@@ -2406,19 +2406,19 @@
     </row>
     <row r="20" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O20">
         <v>2</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>18</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="21" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>18</v>
@@ -2444,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>18</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="22" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>18</v>
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>18</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="23" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>18</v>
@@ -2496,7 +2496,7 @@
         <v>2</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>18</v>
@@ -2510,25 +2510,25 @@
     </row>
     <row r="24" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
         <v>45</v>
       </c>
-      <c r="K24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" t="s">
-        <v>46</v>
-      </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="R24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T24">
         <v>24</v>
@@ -2536,25 +2536,25 @@
     </row>
     <row r="25" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" t="s">
         <v>47</v>
       </c>
-      <c r="K25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" t="s">
-        <v>48</v>
-      </c>
       <c r="O25">
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="R25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T25">
         <v>25</v>
@@ -2562,25 +2562,25 @@
     </row>
     <row r="26" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" t="s">
         <v>49</v>
       </c>
-      <c r="K26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" t="s">
-        <v>50</v>
-      </c>
       <c r="O26">
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="R26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T26">
         <v>26</v>
@@ -2588,25 +2588,25 @@
     </row>
     <row r="27" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" t="s">
         <v>51</v>
       </c>
-      <c r="K27" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" t="s">
-        <v>52</v>
-      </c>
       <c r="O27">
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="R27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T27">
         <v>27</v>

--- a/tests/data/Architecture_Golden_Config_Dellanox.xlsx
+++ b/tests/data/Architecture_Golden_Config_Dellanox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasbates/canu-container/canu/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E7923D-235C-7246-A7FA-72DD76CB9529}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CECDA6-2902-AB49-BEA4-5CF8DF5F2D8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="1640" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{4E3EDB71-9423-764F-AB16-D8E153A84166}"/>
+    <workbookView xWindow="79000" yWindow="-7960" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{4E3EDB71-9423-764F-AB16-D8E153A84166}"/>
   </bookViews>
   <sheets>
     <sheet name="SWITCH_TO_SWITCH" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="55">
   <si>
     <t>Source</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>sw-smn01</t>
+  </si>
+  <si>
+    <t>onboard</t>
   </si>
 </sst>
 </file>
@@ -2518,6 +2521,9 @@
       <c r="L24" t="s">
         <v>45</v>
       </c>
+      <c r="M24" t="s">
+        <v>54</v>
+      </c>
       <c r="O24">
         <v>1</v>
       </c>
@@ -2544,6 +2550,9 @@
       <c r="L25" t="s">
         <v>47</v>
       </c>
+      <c r="M25" t="s">
+        <v>54</v>
+      </c>
       <c r="O25">
         <v>1</v>
       </c>
@@ -2570,6 +2579,9 @@
       <c r="L26" t="s">
         <v>49</v>
       </c>
+      <c r="M26" t="s">
+        <v>54</v>
+      </c>
       <c r="O26">
         <v>1</v>
       </c>
@@ -2595,6 +2607,9 @@
       </c>
       <c r="L27" t="s">
         <v>51</v>
+      </c>
+      <c r="M27" t="s">
+        <v>54</v>
       </c>
       <c r="O27">
         <v>1</v>
